--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_9_matched_error_tables_T55.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_9_matched_error_tables_T55.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.011922918044421</v>
+        <v>-0.1349881739519865</v>
       </c>
       <c r="C2">
-        <v>1.502158260014067</v>
+        <v>1.932678250060537</v>
       </c>
       <c r="D2">
-        <v>8.459308576868294</v>
+        <v>16.79600690525843</v>
       </c>
       <c r="E2">
-        <v>2.908489053936475</v>
+        <v>4.09829316975475</v>
       </c>
       <c r="F2">
-        <v>2.973831532800685</v>
+        <v>4.19246076256923</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.5658384863776997</v>
+        <v>0.1207090144436769</v>
       </c>
       <c r="C3">
-        <v>2.129283520569611</v>
+        <v>1.786104848928261</v>
       </c>
       <c r="D3">
-        <v>18.65469822571722</v>
+        <v>11.46089950717241</v>
       </c>
       <c r="E3">
-        <v>4.319108498951747</v>
+        <v>3.385395029708116</v>
       </c>
       <c r="F3">
-        <v>4.382647333937844</v>
+        <v>3.466791785362177</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.9240374313429358</v>
+        <v>-0.5555707582142663</v>
       </c>
       <c r="C4">
-        <v>1.444924223990262</v>
+        <v>1.050109602367337</v>
       </c>
       <c r="D4">
-        <v>8.174846682920178</v>
+        <v>4.446451018744308</v>
       </c>
       <c r="E4">
-        <v>2.85916887974813</v>
+        <v>2.108660953957347</v>
       </c>
       <c r="F4">
-        <v>2.772553260771954</v>
+        <v>2.087000403843689</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.07040277154089039</v>
+        <v>0.07663430359571852</v>
       </c>
       <c r="C5">
-        <v>0.5120019363376737</v>
+        <v>0.7265601984156437</v>
       </c>
       <c r="D5">
-        <v>0.4676573765475683</v>
+        <v>1.828123414480074</v>
       </c>
       <c r="E5">
-        <v>0.6838547920045368</v>
+        <v>1.352081141973393</v>
       </c>
       <c r="F5">
-        <v>0.6978921846357898</v>
+        <v>1.386898245123047</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1483703450672545</v>
+        <v>0.04069694792458084</v>
       </c>
       <c r="C6">
-        <v>0.8649345531276215</v>
+        <v>0.747007170374518</v>
       </c>
       <c r="D6">
-        <v>1.90040254551332</v>
+        <v>1.696764412358688</v>
       </c>
       <c r="E6">
-        <v>1.378550886080496</v>
+        <v>1.302599098862996</v>
       </c>
       <c r="F6">
-        <v>1.408099328451515</v>
+        <v>1.339709078915569</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.07978550902713241</v>
+        <v>-0.003405844617402055</v>
       </c>
       <c r="C7">
-        <v>0.7076988813810415</v>
+        <v>0.6048043842844364</v>
       </c>
       <c r="D7">
-        <v>1.325148457270131</v>
+        <v>0.6518033129846593</v>
       </c>
       <c r="E7">
-        <v>1.151150927233319</v>
+        <v>0.8073433674618621</v>
       </c>
       <c r="F7">
-        <v>1.181676006574844</v>
+        <v>0.8321830900003587</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.004526189646546301</v>
+        <v>0.08389527245345252</v>
       </c>
       <c r="C8">
-        <v>0.5864325954492303</v>
+        <v>0.588137197430979</v>
       </c>
       <c r="D8">
-        <v>0.5709791096934894</v>
+        <v>0.6090342934726032</v>
       </c>
       <c r="E8">
-        <v>0.7556315965425807</v>
+        <v>0.7804064924592844</v>
       </c>
       <c r="F8">
-        <v>0.7788732485180572</v>
+        <v>0.8013294797905551</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2502318746956579</v>
+        <v>0.225243323359858</v>
       </c>
       <c r="C9">
-        <v>0.5174934839310298</v>
+        <v>0.4988262046674656</v>
       </c>
       <c r="D9">
-        <v>0.4275779196144051</v>
+        <v>0.4060786597870128</v>
       </c>
       <c r="E9">
-        <v>0.653894425434569</v>
+        <v>0.6372430147024075</v>
       </c>
       <c r="F9">
-        <v>0.6239332686546548</v>
+        <v>0.6170298427624463</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1901465307434204</v>
+        <v>0.2001121816970861</v>
       </c>
       <c r="C10">
-        <v>0.4556814281592019</v>
+        <v>0.4652087079175589</v>
       </c>
       <c r="D10">
-        <v>0.3317531417364475</v>
+        <v>0.3905605582328028</v>
       </c>
       <c r="E10">
-        <v>0.575980157415555</v>
+        <v>0.6249484444598633</v>
       </c>
       <c r="F10">
-        <v>0.5627713046510059</v>
+        <v>0.614392722160502</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2349662137414842</v>
+        <v>0.2336685148374089</v>
       </c>
       <c r="C11">
-        <v>0.4912372055275555</v>
+        <v>0.3914692457684976</v>
       </c>
       <c r="D11">
-        <v>0.3821517403275286</v>
+        <v>0.1986247317491</v>
       </c>
       <c r="E11">
-        <v>0.6181842284687702</v>
+        <v>0.4456733464647622</v>
       </c>
       <c r="F11">
-        <v>0.5951368220458327</v>
+        <v>0.395000932487943</v>
       </c>
       <c r="G11">
         <v>13</v>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_9_matched_error_tables_T55.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_9_matched_error_tables_T55.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1349881739519865</v>
+        <v>-0.011922918044421</v>
       </c>
       <c r="C2">
-        <v>1.932678250060537</v>
+        <v>1.502158260014067</v>
       </c>
       <c r="D2">
-        <v>16.79600690525843</v>
+        <v>8.459308576868294</v>
       </c>
       <c r="E2">
-        <v>4.09829316975475</v>
+        <v>2.908489053936475</v>
       </c>
       <c r="F2">
-        <v>4.19246076256923</v>
+        <v>2.973831532800685</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1207090144436769</v>
+        <v>0.5658384863776997</v>
       </c>
       <c r="C3">
-        <v>1.786104848928261</v>
+        <v>2.129283520569611</v>
       </c>
       <c r="D3">
-        <v>11.46089950717241</v>
+        <v>18.65469822571722</v>
       </c>
       <c r="E3">
-        <v>3.385395029708116</v>
+        <v>4.319108498951747</v>
       </c>
       <c r="F3">
-        <v>3.466791785362177</v>
+        <v>4.382647333937844</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.5555707582142663</v>
+        <v>-0.9240374313429358</v>
       </c>
       <c r="C4">
-        <v>1.050109602367337</v>
+        <v>1.444924223990262</v>
       </c>
       <c r="D4">
-        <v>4.446451018744308</v>
+        <v>8.174846682920178</v>
       </c>
       <c r="E4">
-        <v>2.108660953957347</v>
+        <v>2.85916887974813</v>
       </c>
       <c r="F4">
-        <v>2.087000403843689</v>
+        <v>2.772553260771954</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.07663430359571852</v>
+        <v>0.07040277154089039</v>
       </c>
       <c r="C5">
-        <v>0.7265601984156437</v>
+        <v>0.5120019363376737</v>
       </c>
       <c r="D5">
-        <v>1.828123414480074</v>
+        <v>0.4676573765475683</v>
       </c>
       <c r="E5">
-        <v>1.352081141973393</v>
+        <v>0.6838547920045368</v>
       </c>
       <c r="F5">
-        <v>1.386898245123047</v>
+        <v>0.6978921846357898</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.04069694792458084</v>
+        <v>0.1483703450672545</v>
       </c>
       <c r="C6">
-        <v>0.747007170374518</v>
+        <v>0.8649345531276215</v>
       </c>
       <c r="D6">
-        <v>1.696764412358688</v>
+        <v>1.90040254551332</v>
       </c>
       <c r="E6">
-        <v>1.302599098862996</v>
+        <v>1.378550886080496</v>
       </c>
       <c r="F6">
-        <v>1.339709078915569</v>
+        <v>1.408099328451515</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.003405844617402055</v>
+        <v>-0.07978550902713241</v>
       </c>
       <c r="C7">
-        <v>0.6048043842844364</v>
+        <v>0.7076988813810415</v>
       </c>
       <c r="D7">
-        <v>0.6518033129846593</v>
+        <v>1.325148457270131</v>
       </c>
       <c r="E7">
-        <v>0.8073433674618621</v>
+        <v>1.151150927233319</v>
       </c>
       <c r="F7">
-        <v>0.8321830900003587</v>
+        <v>1.181676006574844</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.08389527245345252</v>
+        <v>-0.004526189646546301</v>
       </c>
       <c r="C8">
-        <v>0.588137197430979</v>
+        <v>0.5864325954492303</v>
       </c>
       <c r="D8">
-        <v>0.6090342934726032</v>
+        <v>0.5709791096934894</v>
       </c>
       <c r="E8">
-        <v>0.7804064924592844</v>
+        <v>0.7556315965425807</v>
       </c>
       <c r="F8">
-        <v>0.8013294797905551</v>
+        <v>0.7788732485180572</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.225243323359858</v>
+        <v>0.2502318746956579</v>
       </c>
       <c r="C9">
-        <v>0.4988262046674656</v>
+        <v>0.5174934839310298</v>
       </c>
       <c r="D9">
-        <v>0.4060786597870128</v>
+        <v>0.4275779196144051</v>
       </c>
       <c r="E9">
-        <v>0.6372430147024075</v>
+        <v>0.653894425434569</v>
       </c>
       <c r="F9">
-        <v>0.6170298427624463</v>
+        <v>0.6239332686546548</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2001121816970861</v>
+        <v>0.1901465307434204</v>
       </c>
       <c r="C10">
-        <v>0.4652087079175589</v>
+        <v>0.4556814281592019</v>
       </c>
       <c r="D10">
-        <v>0.3905605582328028</v>
+        <v>0.3317531417364475</v>
       </c>
       <c r="E10">
-        <v>0.6249484444598633</v>
+        <v>0.575980157415555</v>
       </c>
       <c r="F10">
-        <v>0.614392722160502</v>
+        <v>0.5627713046510059</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2336685148374089</v>
+        <v>0.2349662137414842</v>
       </c>
       <c r="C11">
-        <v>0.3914692457684976</v>
+        <v>0.4912372055275555</v>
       </c>
       <c r="D11">
-        <v>0.1986247317491</v>
+        <v>0.3821517403275286</v>
       </c>
       <c r="E11">
-        <v>0.4456733464647622</v>
+        <v>0.6181842284687702</v>
       </c>
       <c r="F11">
-        <v>0.395000932487943</v>
+        <v>0.5951368220458327</v>
       </c>
       <c r="G11">
         <v>13</v>
